--- a/BOMv0.xlsx
+++ b/BOMv0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC\!W\Prj\F\Stepan\L02-22F\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Proj\CnC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="199">
   <si>
     <t>Comment</t>
   </si>
@@ -477,42 +477,6 @@
     <t>110 кОм 1%</t>
   </si>
   <si>
-    <t>51 Ом 5%</t>
-  </si>
-  <si>
-    <t>220 Ом 5%</t>
-  </si>
-  <si>
-    <t>120 Ом 5%</t>
-  </si>
-  <si>
-    <t>300 Ом 5%</t>
-  </si>
-  <si>
-    <t>510 Ом 5%</t>
-  </si>
-  <si>
-    <t>1 кОм 5%</t>
-  </si>
-  <si>
-    <t>270 кОм 5%</t>
-  </si>
-  <si>
-    <t>510 кОм 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 кОм 5% </t>
-  </si>
-  <si>
-    <t>20 Ом 5%</t>
-  </si>
-  <si>
-    <t>5к1 5%</t>
-  </si>
-  <si>
-    <t>НЕ  УСТАНАВЛИВАТЬ  5к1 5%</t>
-  </si>
-  <si>
     <t>Чип конденсатор 0805'NPO</t>
   </si>
   <si>
@@ -529,6 +493,129 @@
   </si>
   <si>
     <t>C18, C72</t>
+  </si>
+  <si>
+    <t>Чип конденсатор 0805 NP0</t>
+  </si>
+  <si>
+    <t>Было</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-071K62L</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-072K74L</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805  RC0805FR-072K49L</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-07100KL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805  RC0805FR-07110KL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805  RC0805FR-070RL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805  RC0805FR-0751RL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 5%</t>
+  </si>
+  <si>
+    <t>51 Ом 1%</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805  RC0805FR-07220RL</t>
+  </si>
+  <si>
+    <t>220 Ом 1%</t>
+  </si>
+  <si>
+    <t>120 Ом 1%</t>
+  </si>
+  <si>
+    <t>300 Ом 1%</t>
+  </si>
+  <si>
+    <t>510 Ом 1%</t>
+  </si>
+  <si>
+    <t>1 кОм 1%</t>
+  </si>
+  <si>
+    <t>270 кОм 1%</t>
+  </si>
+  <si>
+    <t>510 кОм 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 кОм 1% </t>
+  </si>
+  <si>
+    <t>20 Ом 1%</t>
+  </si>
+  <si>
+    <t>5к1 1%</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-07120RL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-07300RL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-07510RL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-071KL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-07270KL</t>
+  </si>
+  <si>
+    <t>Чип резистор 0805 RC0805FR-07510KL</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>Чип резистор 1206 RC1206FR-070RL</t>
+  </si>
+  <si>
+    <t>Чип резистор 1206  RC1206FR-0720RL</t>
+  </si>
+  <si>
+    <t>Чип резистор 1206  RC1206FR-075K1L</t>
+  </si>
+  <si>
+    <t>НЕ  УСТАНАВЛИВАТЬ  5к1 1%</t>
+  </si>
+  <si>
+    <t>Чип резистор 1206 RC1206FR-075K1L</t>
+  </si>
+  <si>
+    <t>Чип резистор 1206 5%</t>
+  </si>
+  <si>
+    <t>Чип конденсатор 0805 X7R (можно X5R, Y5R, Y7R, X7S  X5S, Y5S, Y7S)</t>
+  </si>
+  <si>
+    <t>Чип конденсатор 0805 X7R  (можно X5R, Y5R, Y7R, X7S  X5S, Y5S, Y7S)</t>
+  </si>
+  <si>
+    <t>Чип конденсатор 1206 X7R  (можно X5R, Y5R, Y7R, X7S  X5S, Y5S, Y7S)</t>
+  </si>
+  <si>
+    <t>MuRata, Vishay</t>
+  </si>
+  <si>
+    <t>теперь можно объединить со строкой 43</t>
   </si>
 </sst>
 </file>
@@ -552,7 +639,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,8 +694,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -631,11 +724,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +825,27 @@
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
   </cellXfs>
@@ -1001,23 +1152,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="103" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,13 +1185,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
@@ -1047,14 +1202,16 @@
       <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>15</v>
@@ -1062,29 +1219,36 @@
       <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
@@ -1092,44 +1256,59 @@
       <c r="D5" s="10">
         <v>8</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D6" s="10">
         <v>27</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D7" s="10">
         <v>14</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1137,9 +1316,14 @@
       <c r="D8" s="10">
         <v>7</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1338,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
@@ -1188,7 +1372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
@@ -1218,11 +1402,11 @@
       <c r="D13" s="12">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
@@ -1238,8 +1422,9 @@
       <c r="E14" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
@@ -1255,8 +1440,9 @@
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -1272,8 +1458,9 @@
       <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -1289,8 +1476,9 @@
       <c r="E17" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1306,8 +1494,9 @@
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1323,8 +1512,9 @@
       <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -1340,8 +1530,9 @@
       <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1357,8 +1548,9 @@
       <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>67</v>
       </c>
@@ -1374,8 +1566,9 @@
       <c r="E22" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>63</v>
       </c>
@@ -1391,8 +1584,9 @@
       <c r="E23" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -1408,8 +1602,9 @@
       <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -1425,8 +1620,9 @@
       <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>143</v>
       </c>
@@ -1442,8 +1638,9 @@
       <c r="E26" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -1459,8 +1656,9 @@
       <c r="E27" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>144</v>
       </c>
@@ -1476,8 +1674,9 @@
       <c r="E28" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -1493,13 +1692,14 @@
       <c r="E29" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>97</v>
@@ -1507,59 +1707,73 @@
       <c r="D30" s="18">
         <v>1</v>
       </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="B32" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="18">
-        <v>1</v>
-      </c>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>99</v>
-      </c>
       <c r="D32" s="18">
-        <v>2</v>
-      </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="26">
         <v>13</v>
       </c>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>104</v>
@@ -1567,14 +1781,17 @@
       <c r="D34" s="18">
         <v>4</v>
       </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>151</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>106</v>
@@ -1582,14 +1799,17 @@
       <c r="D35" s="18">
         <v>1</v>
       </c>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>70</v>
@@ -1597,14 +1817,19 @@
       <c r="D36" s="3">
         <v>21</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>108</v>
@@ -1612,44 +1837,59 @@
       <c r="D37" s="3">
         <v>1</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D39" s="3">
         <v>1</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>101</v>
@@ -1657,14 +1897,19 @@
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>103</v>
@@ -1672,14 +1917,19 @@
       <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E41" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>93</v>
@@ -1687,59 +1937,80 @@
       <c r="D42" s="3">
         <v>26</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="E42" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="26">
+        <v>69</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" ht="91.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D45" s="3">
-        <v>69</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>95</v>
@@ -1747,14 +2018,19 @@
       <c r="D46" s="16">
         <v>7</v>
       </c>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>107</v>
@@ -1762,14 +2038,19 @@
       <c r="D47" s="16">
         <v>1</v>
       </c>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" s="4" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.3">
+      <c r="E47" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>92</v>
@@ -1777,14 +2058,19 @@
       <c r="D48" s="16">
         <v>49</v>
       </c>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E48" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>91</v>
@@ -1792,9 +2078,14 @@
       <c r="D49" s="3">
         <v>21</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>145</v>
       </c>
@@ -1807,9 +2098,14 @@
       <c r="D50" s="3">
         <v>7</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>110</v>
       </c>
@@ -1825,8 +2121,9 @@
       <c r="E51" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>114</v>
       </c>
@@ -1842,8 +2139,9 @@
       <c r="E52" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -1859,8 +2157,9 @@
       <c r="E53" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>139</v>
       </c>
@@ -1876,8 +2175,9 @@
       <c r="E54" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>122</v>
       </c>
@@ -1893,8 +2193,9 @@
       <c r="E55" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>126</v>
       </c>
@@ -1910,8 +2211,9 @@
       <c r="E56" s="19" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>136</v>
       </c>
@@ -1927,8 +2229,9 @@
       <c r="E57" s="19" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>133</v>
       </c>
@@ -1944,8 +2247,9 @@
       <c r="E58" s="19" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>130</v>
       </c>
@@ -1961,6 +2265,7 @@
       <c r="E59" s="19" t="s">
         <v>129</v>
       </c>
+      <c r="F59" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
